--- a/GodWork/workspace/GodWork/WEB-INF/src/Roster.xlsx
+++ b/GodWork/workspace/GodWork/WEB-INF/src/Roster.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">勤務表</t>
   </si>
@@ -60,99 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">備考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
   </si>
 </sst>
 </file>
@@ -163,11 +70,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="TakaoPGothic"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -189,11 +97,7 @@
       <sz val="18"/>
       <name val="TakaoPGothic"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -262,7 +166,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -289,17 +193,17 @@
   </sheetPr>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="4.57657657657658"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.76126126126126"/>
-    <col collapsed="false" hidden="false" max="10" min="4" style="0" width="7.6036036036036"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.7297297297297"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.53603603603604"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="4.52702702702703"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.62612612612613"/>
+    <col collapsed="false" hidden="false" max="10" min="4" style="0" width="7.50900900900901"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.6171171171171"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.41441441441441"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -349,9 +253,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -364,9 +266,7 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -379,9 +279,7 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -394,9 +292,7 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -409,9 +305,7 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -424,9 +318,7 @@
       <c r="K9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -439,9 +331,7 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -454,9 +344,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -469,9 +357,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -484,9 +370,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -499,9 +383,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -514,9 +396,7 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -529,9 +409,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -544,9 +422,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -559,9 +435,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -574,9 +448,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -589,9 +461,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -604,9 +474,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -619,9 +487,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -634,9 +500,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -649,9 +513,7 @@
       <c r="K24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -664,9 +526,7 @@
       <c r="K25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -679,9 +539,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -694,9 +552,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -709,9 +565,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -724,9 +578,7 @@
       <c r="K29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -739,9 +591,7 @@
       <c r="K30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -754,9 +604,7 @@
       <c r="K31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -769,9 +617,7 @@
       <c r="K32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -784,9 +630,7 @@
       <c r="K33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -799,9 +643,7 @@
       <c r="K34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>

--- a/GodWork/workspace/GodWork/WEB-INF/src/Roster.xlsx
+++ b/GodWork/workspace/GodWork/WEB-INF/src/Roster.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">勤務表</t>
   </si>
   <si>
     <t xml:space="preserve">氏名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#####</t>
   </si>
   <si>
     <t xml:space="preserve">日付</t>
@@ -193,17 +196,17 @@
   </sheetPr>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="4.52702702702703"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.62612612612613"/>
-    <col collapsed="false" hidden="false" max="10" min="4" style="0" width="7.50900900900901"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.6171171171171"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.41441441441441"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="4.40990990990991"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.50900900900901"/>
+    <col collapsed="false" hidden="false" max="10" min="4" style="0" width="7.38738738738739"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.2972972972973"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -216,40 +219,43 @@
       <c r="J3" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="K3" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/GodWork/workspace/GodWork/WEB-INF/src/Roster.xlsx
+++ b/GodWork/workspace/GodWork/WEB-INF/src/Roster.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="勤務表" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">勤務表</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">備考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合計</t>
   </si>
 </sst>
 </file>
@@ -194,19 +197,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="4.40990990990991"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.50900900900901"/>
-    <col collapsed="false" hidden="false" max="10" min="4" style="0" width="7.38738738738739"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.2972972972973"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="4.29279279279279"/>
+    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="8.70720720720721"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.3783783783784"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.17567567567568"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -661,6 +663,16 @@
       <c r="J35" s="4"/>
       <c r="K35" s="5"/>
     </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/GodWork/workspace/GodWork/WEB-INF/src/Roster.xlsx
+++ b/GodWork/workspace/GodWork/WEB-INF/src/Roster.xlsx
@@ -76,7 +76,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="TakaoPGothic"/>
@@ -105,6 +105,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="TakaoPGothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -114,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -129,6 +134,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -155,7 +167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -178,6 +190,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -200,15 +216,14 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
+      <selection pane="topLeft" activeCell="J41" activeCellId="0" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="4.29279279279279"/>
-    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="8.70720720720721"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.3783783783784"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.17567567567568"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="4.17117117117117"/>
+    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="8.6981981981982"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.2612612612613"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -664,10 +679,9 @@
       <c r="K35" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="0" t="s">
+      <c r="F37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
